--- a/biology/Zoologie/Deroceras_reticulatum/Deroceras_reticulatum.xlsx
+++ b/biology/Zoologie/Deroceras_reticulatum/Deroceras_reticulatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Loche laiteuse
-Deroceras reticulatum, la Loche laiteuse[1] (également appelée Petite limace grise, Limace grise, Limace réticulée ou simplement « Loche »), est une espèce de mollusque gastéropode terrestre pulmoné de la famille des Agriolimacidae. C'est un ravageur important de nombreuses plantes cultivées dont elle consomme les feuilles entre les nervures.
+Deroceras reticulatum, la Loche laiteuse (également appelée Petite limace grise, Limace grise, Limace réticulée ou simplement « Loche »), est une espèce de mollusque gastéropode terrestre pulmoné de la famille des Agriolimacidae. C'est un ravageur important de nombreuses plantes cultivées dont elle consomme les feuilles entre les nervures.
 </t>
         </is>
       </c>
